--- a/downloads/format_oscrms_jadwal.xlsx
+++ b/downloads/format_oscrms_jadwal.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="22">
   <si>
     <t>Jadwal JUNI 2014</t>
   </si>
@@ -80,9 +80,6 @@
   </si>
   <si>
     <t>N8487UC</t>
-  </si>
-  <si>
-    <t>M214-144557</t>
   </si>
 </sst>
 </file>
@@ -308,27 +305,7 @@
     <cellStyle name="Normal 2" xfId="1"/>
     <cellStyle name="Normal 3" xfId="2"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -648,8 +625,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="AG14" sqref="AG14"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1161,9 +1138,7 @@
       <c r="AJ7" s="11"/>
     </row>
     <row r="8" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A8" s="13" t="s">
-        <v>22</v>
-      </c>
+      <c r="A8" s="13"/>
       <c r="B8" s="13"/>
       <c r="C8" s="13"/>
       <c r="D8" s="13"/>
@@ -6639,7 +6614,7 @@
     <mergeCell ref="A1:E2"/>
   </mergeCells>
   <conditionalFormatting sqref="F4:AH6">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="lessThan">
       <formula>"t"</formula>
     </cfRule>
     <cfRule type="iconSet" priority="2">
@@ -6649,10 +6624,10 @@
         <cfvo type="percent" val="67"/>
       </iconSet>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="X">
+    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="X">
       <formula>NOT(ISERROR(SEARCH("X",F4)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
